--- a/COVID19Data/Korea.xlsx
+++ b/COVID19Data/Korea.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="59">
   <si>
     <t>date</t>
   </si>
@@ -188,6 +188,15 @@
   </si>
   <si>
     <t>505</t>
+  </si>
+  <si>
+    <t>20200428</t>
+  </si>
+  <si>
+    <t>20200429</t>
+  </si>
+  <si>
+    <t>20200430</t>
   </si>
 </sst>
 </file>
@@ -569,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101:D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2480,6 +2489,526 @@
         <v>10</v>
       </c>
     </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>56</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>14</v>
+      </c>
+      <c r="F96">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>57</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>9</v>
+      </c>
+      <c r="F97">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>58</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>4</v>
+      </c>
+      <c r="F98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>20200501</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>9</v>
+      </c>
+      <c r="F99">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>20200502</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>6</v>
+      </c>
+      <c r="F100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>20200503</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>13</v>
+      </c>
+      <c r="F101">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>20200504</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>8</v>
+      </c>
+      <c r="F102">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>20200505</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+      <c r="F103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>20200506</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>20200507</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>4</v>
+      </c>
+      <c r="F105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>20200508</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>12</v>
+      </c>
+      <c r="F106">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>20200509</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>18</v>
+      </c>
+      <c r="F107">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>20200510</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>34</v>
+      </c>
+      <c r="F108">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>20200511</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>35</v>
+      </c>
+      <c r="F109">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>20200512</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>27</v>
+      </c>
+      <c r="F110">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>20200513</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>26</v>
+      </c>
+      <c r="F111">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>20200514</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>29</v>
+      </c>
+      <c r="F112">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>20200515</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>27</v>
+      </c>
+      <c r="F113">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>20200516</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>19</v>
+      </c>
+      <c r="F114">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>20200517</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>13</v>
+      </c>
+      <c r="F115">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>20200518</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>15</v>
+      </c>
+      <c r="F116">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>20200519</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>13</v>
+      </c>
+      <c r="F117">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>20200520</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>32</v>
+      </c>
+      <c r="F118">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>20200521</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>12</v>
+      </c>
+      <c r="F119">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>20200522</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>20</v>
+      </c>
+      <c r="F120">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>20200523</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>23</v>
+      </c>
+      <c r="F121">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
